--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fgf2-Fgfrl1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Fgfrl1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H2">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I2">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J2">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N2">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O2">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P2">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q2">
-        <v>15.20711571131834</v>
+        <v>1.634958274257</v>
       </c>
       <c r="R2">
-        <v>91.24269426791001</v>
+        <v>6.539833097028</v>
       </c>
       <c r="S2">
-        <v>0.09475759244626371</v>
+        <v>0.01122057216901931</v>
       </c>
       <c r="T2">
-        <v>0.08092261434126383</v>
+        <v>0.006666125507258117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H3">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I3">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J3">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O3">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P3">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q3">
-        <v>40.35246423348777</v>
+        <v>4.199602538396999</v>
       </c>
       <c r="R3">
-        <v>363.17217810139</v>
+        <v>25.197615230382</v>
       </c>
       <c r="S3">
-        <v>0.2514416561710889</v>
+        <v>0.02882149600098792</v>
       </c>
       <c r="T3">
-        <v>0.3220952904095862</v>
+        <v>0.02568421290226176</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H4">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I4">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J4">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N4">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O4">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P4">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q4">
-        <v>2.459912599214444</v>
+        <v>0.223166499738</v>
       </c>
       <c r="R4">
-        <v>22.13921339293</v>
+        <v>1.338998998428</v>
       </c>
       <c r="S4">
-        <v>0.01532804773467355</v>
+        <v>0.001531571695403429</v>
       </c>
       <c r="T4">
-        <v>0.01963513946612062</v>
+        <v>0.001364856754780228</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H5">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I5">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J5">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N5">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O5">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P5">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q5">
-        <v>46.60320570033333</v>
+        <v>3.5786265131295</v>
       </c>
       <c r="R5">
-        <v>279.619234202</v>
+        <v>14.314506052518</v>
       </c>
       <c r="S5">
-        <v>0.2903908707129018</v>
+        <v>0.02455979316951279</v>
       </c>
       <c r="T5">
-        <v>0.2479926709012807</v>
+        <v>0.0145909371852097</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H6">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I6">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J6">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N6">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O6">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P6">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q6">
-        <v>11.51907638901556</v>
+        <v>0.3753791419349999</v>
       </c>
       <c r="R6">
-        <v>103.67168750114</v>
+        <v>2.25227485161</v>
       </c>
       <c r="S6">
-        <v>0.07177692118271448</v>
+        <v>0.00257619342288128</v>
       </c>
       <c r="T6">
-        <v>0.09194581607958188</v>
+        <v>0.002295769114428384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.41987666666667</v>
+        <v>1.396647</v>
       </c>
       <c r="H7">
-        <v>40.25963</v>
+        <v>2.793294</v>
       </c>
       <c r="I7">
-        <v>0.744640910590638</v>
+        <v>0.07027683222332393</v>
       </c>
       <c r="J7">
-        <v>0.789423007068499</v>
+        <v>0.05199851344209044</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N7">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O7">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P7">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q7">
-        <v>3.36147780685</v>
+        <v>0.228358767735</v>
       </c>
       <c r="R7">
-        <v>30.25330026165</v>
+        <v>1.37015260641</v>
       </c>
       <c r="S7">
-        <v>0.02094582234299571</v>
+        <v>0.001567205765519197</v>
       </c>
       <c r="T7">
-        <v>0.02683147587066574</v>
+        <v>0.00139661197815226</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H8">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I8">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J8">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N8">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O8">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P8">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q8">
-        <v>0.1324746102686667</v>
+        <v>15.70972364217666</v>
       </c>
       <c r="R8">
-        <v>0.794847661612</v>
+        <v>94.25834185305999</v>
       </c>
       <c r="S8">
-        <v>0.0008254671936225897</v>
+        <v>0.1078144260057635</v>
       </c>
       <c r="T8">
-        <v>0.0007049457635678888</v>
+        <v>0.09607858909795176</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H9">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I9">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J9">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O9">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P9">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q9">
-        <v>0.3515247121275555</v>
+        <v>40.35246423348777</v>
       </c>
       <c r="R9">
-        <v>3.163722409147999</v>
+        <v>363.1721781013899</v>
       </c>
       <c r="S9">
-        <v>0.002190397971508918</v>
+        <v>0.276935347072012</v>
       </c>
       <c r="T9">
-        <v>0.002805886985828942</v>
+        <v>0.3701854900652364</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H10">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I10">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J10">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N10">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O10">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P10">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q10">
-        <v>0.02142917625288888</v>
+        <v>2.144326306228889</v>
       </c>
       <c r="R10">
-        <v>0.1928625862759999</v>
+        <v>19.29893675606</v>
       </c>
       <c r="S10">
-        <v>0.000133528092267956</v>
+        <v>0.01471631934087252</v>
       </c>
       <c r="T10">
-        <v>0.0001710487049433876</v>
+        <v>0.01967162352063646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H11">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I11">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J11">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N11">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O11">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P11">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q11">
-        <v>0.4059771510666667</v>
+        <v>34.38572985318499</v>
       </c>
       <c r="R11">
-        <v>2.4358629064</v>
+        <v>206.31437911911</v>
       </c>
       <c r="S11">
-        <v>0.002529698474947386</v>
+        <v>0.2359861835479574</v>
       </c>
       <c r="T11">
-        <v>0.002160352630359831</v>
+        <v>0.2102985695131926</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H12">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I12">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J12">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N12">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O12">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P12">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q12">
-        <v>0.1003467839831111</v>
+        <v>3.60688261816111</v>
       </c>
       <c r="R12">
-        <v>0.903121055848</v>
+        <v>32.46194356344999</v>
       </c>
       <c r="S12">
-        <v>0.0006252743676361877</v>
+        <v>0.02475371228703074</v>
       </c>
       <c r="T12">
-        <v>0.0008009728065599866</v>
+        <v>0.03308882456064933</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1169053333333333</v>
+        <v>13.41987666666667</v>
       </c>
       <c r="H13">
-        <v>0.350716</v>
+        <v>40.25962999999999</v>
       </c>
       <c r="I13">
-        <v>0.006486832631067552</v>
+        <v>0.6752647025060969</v>
       </c>
       <c r="J13">
-        <v>0.006876945449996328</v>
+        <v>0.7494524069892348</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N13">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O13">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P13">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q13">
-        <v>0.02928303242</v>
+        <v>2.194216934383333</v>
       </c>
       <c r="R13">
-        <v>0.26354729178</v>
+        <v>19.74795240945</v>
       </c>
       <c r="S13">
-        <v>0.0001824665310845153</v>
+        <v>0.01505871425246074</v>
       </c>
       <c r="T13">
-        <v>0.0002337385587362926</v>
+        <v>0.02012931023156819</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,31 +1272,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H14">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I14">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J14">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N14">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O14">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P14">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q14">
-        <v>3.47548848873025</v>
+        <v>0.358479989868</v>
       </c>
       <c r="R14">
-        <v>13.901953954921</v>
+        <v>2.150879939208</v>
       </c>
       <c r="S14">
-        <v>0.02165623830439256</v>
+        <v>0.002460216056150513</v>
       </c>
       <c r="T14">
-        <v>0.01232956202697025</v>
+        <v>0.002192416138619822</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,31 +1334,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H15">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I15">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J15">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O15">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P15">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q15">
-        <v>9.222296166984831</v>
+        <v>0.9208023832279999</v>
       </c>
       <c r="R15">
-        <v>55.33377700190899</v>
+        <v>8.287221449052</v>
       </c>
       <c r="S15">
-        <v>0.05746537332911043</v>
+        <v>0.00631938426631105</v>
       </c>
       <c r="T15">
-        <v>0.04907520467582025</v>
+        <v>0.008447258128181798</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,31 +1396,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H16">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I16">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J16">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N16">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O16">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P16">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q16">
-        <v>0.5621972032138333</v>
+        <v>0.048931355512</v>
       </c>
       <c r="R16">
-        <v>3.373183219282999</v>
+        <v>0.440382199608</v>
       </c>
       <c r="S16">
-        <v>0.003503126724873682</v>
+        <v>0.00033581150937925</v>
       </c>
       <c r="T16">
-        <v>0.00299165655887984</v>
+        <v>0.0004488865342883774</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,31 +1458,31 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H17">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I17">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J17">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N17">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O17">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P17">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q17">
-        <v>10.65086292655</v>
+        <v>0.7846475450579999</v>
       </c>
       <c r="R17">
-        <v>42.6034517062</v>
+        <v>4.707885270348</v>
       </c>
       <c r="S17">
-        <v>0.06636696580429653</v>
+        <v>0.005384965809337337</v>
       </c>
       <c r="T17">
-        <v>0.03778475328561175</v>
+        <v>0.004798800461769218</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,31 +1520,31 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H18">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I18">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J18">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N18">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O18">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P18">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q18">
-        <v>2.632610821855667</v>
+        <v>0.08230540993999999</v>
       </c>
       <c r="R18">
-        <v>15.795664931134</v>
+        <v>0.7407486894599999</v>
       </c>
       <c r="S18">
-        <v>0.01640415369111415</v>
+        <v>0.0005648546551147775</v>
       </c>
       <c r="T18">
-        <v>0.01400908326679623</v>
+        <v>0.0007550534791967927</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
       <c r="E19">
         <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>3.0670265</v>
+        <v>0.306228</v>
       </c>
       <c r="H19">
-        <v>6.134053</v>
+        <v>0.9186840000000001</v>
       </c>
       <c r="I19">
-        <v>0.1701828908337422</v>
+        <v>0.01540885691093314</v>
       </c>
       <c r="J19">
-        <v>0.1202783673068418</v>
+        <v>0.01710174522375139</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N19">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O19">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P19">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q19">
-        <v>0.7682441328525</v>
+        <v>0.05006980914</v>
       </c>
       <c r="R19">
-        <v>4.609464797115</v>
+        <v>0.4506282822600001</v>
       </c>
       <c r="S19">
-        <v>0.004787032979954853</v>
+        <v>0.0003436246146402152</v>
       </c>
       <c r="T19">
-        <v>0.004088107492763466</v>
+        <v>0.0004593304816953857</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,31 +1644,31 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H20">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I20">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J20">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N20">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O20">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P20">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q20">
-        <v>0.9758102244433334</v>
+        <v>5.273857713971</v>
       </c>
       <c r="R20">
-        <v>5.854861346660001</v>
+        <v>21.095430855884</v>
       </c>
       <c r="S20">
-        <v>0.006080405338395527</v>
+        <v>0.03619401303415096</v>
       </c>
       <c r="T20">
-        <v>0.005192642441992988</v>
+        <v>0.02150281018317036</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,31 +1706,31 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H21">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I21">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J21">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O21">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P21">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q21">
-        <v>2.589336987237778</v>
+        <v>13.54658806372433</v>
       </c>
       <c r="R21">
-        <v>23.30403288514</v>
+        <v>81.27952838234599</v>
       </c>
       <c r="S21">
-        <v>0.01613450858140692</v>
+        <v>0.09296902031464409</v>
       </c>
       <c r="T21">
-        <v>0.02066821109231051</v>
+        <v>0.08284913839983077</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,31 +1768,31 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H22">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I22">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J22">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N22">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O22">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P22">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q22">
-        <v>0.1578476754644444</v>
+        <v>0.7198644666806667</v>
       </c>
       <c r="R22">
-        <v>1.42062907918</v>
+        <v>4.319186800084</v>
       </c>
       <c r="S22">
-        <v>0.0009835701907047073</v>
+        <v>0.004940365346004754</v>
       </c>
       <c r="T22">
-        <v>0.001259947659578259</v>
+        <v>0.004402595734704152</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,31 +1830,31 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H23">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I23">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J23">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N23">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O23">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P23">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q23">
-        <v>2.990434575333333</v>
+        <v>11.5435160265885</v>
       </c>
       <c r="R23">
-        <v>17.942607452</v>
+        <v>46.174064106354</v>
       </c>
       <c r="S23">
-        <v>0.01863380184026272</v>
+        <v>0.07922211636833934</v>
       </c>
       <c r="T23">
-        <v>0.01591319408928871</v>
+        <v>0.04706574341369923</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,31 +1892,31 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H24">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I24">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J24">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N24">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O24">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P24">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q24">
-        <v>0.7391561115155556</v>
+        <v>1.210854255138333</v>
       </c>
       <c r="R24">
-        <v>6.65240500364</v>
+        <v>7.265125530829999</v>
       </c>
       <c r="S24">
-        <v>0.00460578158927444</v>
+        <v>0.008309984279028841</v>
       </c>
       <c r="T24">
-        <v>0.005899979268156966</v>
+        <v>0.007405424251041963</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
         <v>25</v>
       </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
       <c r="E25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.8611266666666667</v>
+        <v>4.505141</v>
       </c>
       <c r="H25">
-        <v>2.58338</v>
+        <v>9.010282</v>
       </c>
       <c r="I25">
-        <v>0.04778211910048955</v>
+        <v>0.2266908089155082</v>
       </c>
       <c r="J25">
-        <v>0.05065569673642353</v>
+        <v>0.1677307400130547</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M25">
-        <v>0.250485</v>
+        <v>0.163505</v>
       </c>
       <c r="N25">
-        <v>0.751455</v>
+        <v>0.490515</v>
       </c>
       <c r="O25">
-        <v>0.02812875581383489</v>
+        <v>0.02230046113261011</v>
       </c>
       <c r="P25">
-        <v>0.03398871787421513</v>
+        <v>0.02685869048367381</v>
       </c>
       <c r="Q25">
-        <v>0.2156993131</v>
+        <v>0.7366130792050001</v>
       </c>
       <c r="R25">
-        <v>1.9412938179</v>
+        <v>4.41967847523</v>
       </c>
       <c r="S25">
-        <v>0.001344051560445246</v>
+        <v>0.005055309573340236</v>
       </c>
       <c r="T25">
-        <v>0.001721722185096099</v>
+        <v>0.004505028030608199</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,31 +2016,31 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H26">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I26">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J26">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.1331785</v>
+        <v>1.170631</v>
       </c>
       <c r="N26">
-        <v>2.266357</v>
+        <v>2.341262</v>
       </c>
       <c r="O26">
-        <v>0.127252734974101</v>
+        <v>0.1596624636318675</v>
       </c>
       <c r="P26">
-        <v>0.1025085582972401</v>
+        <v>0.1281983861842902</v>
       </c>
       <c r="Q26">
-        <v>0.6311902453803333</v>
+        <v>0.1528840183896667</v>
       </c>
       <c r="R26">
-        <v>3.787141472282</v>
+        <v>0.917304110338</v>
       </c>
       <c r="S26">
-        <v>0.003933031691426629</v>
+        <v>0.001049229322143104</v>
       </c>
       <c r="T26">
-        <v>0.003358793723445167</v>
+        <v>0.0009350184075210927</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2078,31 +2078,31 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H27">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I27">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J27">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>9.020752999999999</v>
       </c>
       <c r="O27">
-        <v>0.3376683346227232</v>
+        <v>0.4101137613801331</v>
       </c>
       <c r="P27">
-        <v>0.4080135586694874</v>
+        <v>0.4939412918191532</v>
       </c>
       <c r="Q27">
-        <v>1.674879200286444</v>
+        <v>0.3927024449607778</v>
       </c>
       <c r="R27">
-        <v>15.073912802578</v>
+        <v>3.534322004647</v>
       </c>
       <c r="S27">
-        <v>0.01043639856960806</v>
+        <v>0.002695081699644712</v>
       </c>
       <c r="T27">
-        <v>0.01336896550594154</v>
+        <v>0.003602574211985296</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2140,31 +2140,31 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H28">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I28">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J28">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.1833036666666666</v>
+        <v>0.1597873333333333</v>
       </c>
       <c r="N28">
-        <v>0.5499109999999999</v>
+        <v>0.479362</v>
       </c>
       <c r="O28">
-        <v>0.02058448242189054</v>
+        <v>0.02179340825346879</v>
       </c>
       <c r="P28">
-        <v>0.02487277326643313</v>
+        <v>0.02624799565280337</v>
       </c>
       <c r="Q28">
-        <v>0.1021017309651111</v>
+        <v>0.02086817247088889</v>
       </c>
       <c r="R28">
-        <v>0.9189155786859998</v>
+        <v>0.187813552238</v>
       </c>
       <c r="S28">
-        <v>0.00063620967937064</v>
+        <v>0.0001432163981992511</v>
       </c>
       <c r="T28">
-        <v>0.0008149808769110314</v>
+        <v>0.0001914404683739479</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2202,31 +2202,31 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H29">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I29">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J29">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>3.4727</v>
+        <v>2.5622985</v>
       </c>
       <c r="N29">
-        <v>6.9454</v>
+        <v>5.124597</v>
       </c>
       <c r="O29">
-        <v>0.3899743709791181</v>
+        <v>0.349472114671693</v>
       </c>
       <c r="P29">
-        <v>0.3141442150542265</v>
+        <v>0.2806029676494365</v>
       </c>
       <c r="Q29">
-        <v>1.934323996733333</v>
+        <v>0.3346353300005</v>
       </c>
       <c r="R29">
-        <v>11.6059439804</v>
+        <v>2.007811980003</v>
       </c>
       <c r="S29">
-        <v>0.01205303414670968</v>
+        <v>0.002296572291595978</v>
       </c>
       <c r="T29">
-        <v>0.0102932441476855</v>
+        <v>0.002046585357011462</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2264,31 +2264,31 @@
         <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5570086666666666</v>
+        <v>0.1305996666666667</v>
       </c>
       <c r="H30">
-        <v>1.671026</v>
+        <v>0.391799</v>
       </c>
       <c r="I30">
-        <v>0.03090724684406268</v>
+        <v>0.006571546613249707</v>
       </c>
       <c r="J30">
-        <v>0.03276598343823939</v>
+        <v>0.007293527128937232</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8583593333333334</v>
+        <v>0.2687716666666666</v>
       </c>
       <c r="N30">
-        <v>2.575078</v>
+        <v>0.8063149999999999</v>
       </c>
       <c r="O30">
-        <v>0.09639132118833238</v>
+        <v>0.03665779093022745</v>
       </c>
       <c r="P30">
-        <v>0.1164721768383977</v>
+        <v>0.04415066821064279</v>
       </c>
       <c r="Q30">
-        <v>0.4781135877808889</v>
+        <v>0.03510149007611111</v>
       </c>
       <c r="R30">
-        <v>4.303022290027999</v>
+        <v>0.315913410685</v>
       </c>
       <c r="S30">
-        <v>0.002979190357593118</v>
+        <v>0.000240898381836752</v>
       </c>
       <c r="T30">
-        <v>0.003816325417302628</v>
+        <v>0.0003220140963550298</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2326,61 +2326,433 @@
         <v>24</v>
       </c>
       <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="C31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.391799</v>
+      </c>
+      <c r="I31">
+        <v>0.006571546613249707</v>
+      </c>
+      <c r="J31">
+        <v>0.007293527128937232</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M31">
+        <v>0.163505</v>
+      </c>
+      <c r="N31">
+        <v>0.490515</v>
+      </c>
+      <c r="O31">
+        <v>0.02230046113261011</v>
+      </c>
+      <c r="P31">
+        <v>0.02685869048367381</v>
+      </c>
+      <c r="Q31">
+        <v>0.02135369849833333</v>
+      </c>
+      <c r="R31">
+        <v>0.192183286485</v>
+      </c>
+      <c r="S31">
+        <v>0.0001465485198299107</v>
+      </c>
+      <c r="T31">
+        <v>0.0001958945876904032</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G32">
+        <v>0.115013</v>
+      </c>
+      <c r="H32">
+        <v>0.345039</v>
+      </c>
+      <c r="I32">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J32">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.170631</v>
+      </c>
+      <c r="N32">
+        <v>2.341262</v>
+      </c>
+      <c r="O32">
+        <v>0.1596624636318675</v>
+      </c>
+      <c r="P32">
+        <v>0.1281983861842902</v>
+      </c>
+      <c r="Q32">
+        <v>0.134637783203</v>
+      </c>
+      <c r="R32">
+        <v>0.807826699218</v>
+      </c>
+      <c r="S32">
+        <v>0.0009240070446400688</v>
+      </c>
+      <c r="T32">
+        <v>0.000823426849769066</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G33">
+        <v>0.115013</v>
+      </c>
+      <c r="H33">
+        <v>0.345039</v>
+      </c>
+      <c r="I33">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J33">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>3.006917666666666</v>
+      </c>
+      <c r="N33">
+        <v>9.020752999999999</v>
+      </c>
+      <c r="O33">
+        <v>0.4101137613801331</v>
+      </c>
+      <c r="P33">
+        <v>0.4939412918191532</v>
+      </c>
+      <c r="Q33">
+        <v>0.3458346215963333</v>
+      </c>
+      <c r="R33">
+        <v>3.112511594367</v>
+      </c>
+      <c r="S33">
+        <v>0.002373432026533278</v>
+      </c>
+      <c r="T33">
+        <v>0.003172618111657239</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G34">
+        <v>0.115013</v>
+      </c>
+      <c r="H34">
+        <v>0.345039</v>
+      </c>
+      <c r="I34">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J34">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.1597873333333333</v>
+      </c>
+      <c r="N34">
+        <v>0.479362</v>
+      </c>
+      <c r="O34">
+        <v>0.02179340825346879</v>
+      </c>
+      <c r="P34">
+        <v>0.02624799565280337</v>
+      </c>
+      <c r="Q34">
+        <v>0.01837762056866667</v>
+      </c>
+      <c r="R34">
+        <v>0.165398585118</v>
+      </c>
+      <c r="S34">
+        <v>0.000126123963609584</v>
+      </c>
+      <c r="T34">
+        <v>0.0001685926400202109</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G35">
+        <v>0.115013</v>
+      </c>
+      <c r="H35">
+        <v>0.345039</v>
+      </c>
+      <c r="I35">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J35">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>2.5622985</v>
+      </c>
+      <c r="N35">
+        <v>5.124597</v>
+      </c>
+      <c r="O35">
+        <v>0.349472114671693</v>
+      </c>
+      <c r="P35">
+        <v>0.2806029676494365</v>
+      </c>
+      <c r="Q35">
+        <v>0.2946976373805</v>
+      </c>
+      <c r="R35">
+        <v>1.768185824283</v>
+      </c>
+      <c r="S35">
+        <v>0.002022483484950152</v>
+      </c>
+      <c r="T35">
+        <v>0.001802331718554355</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G36">
+        <v>0.115013</v>
+      </c>
+      <c r="H36">
+        <v>0.345039</v>
+      </c>
+      <c r="I36">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J36">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K36">
         <v>3</v>
       </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0.5570086666666666</v>
-      </c>
-      <c r="H31">
-        <v>1.671026</v>
-      </c>
-      <c r="I31">
-        <v>0.03090724684406268</v>
-      </c>
-      <c r="J31">
-        <v>0.03276598343823939</v>
-      </c>
-      <c r="K31">
-        <v>3</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0.250485</v>
-      </c>
-      <c r="N31">
-        <v>0.751455</v>
-      </c>
-      <c r="O31">
-        <v>0.02812875581383489</v>
-      </c>
-      <c r="P31">
-        <v>0.03398871787421513</v>
-      </c>
-      <c r="Q31">
-        <v>0.13952231587</v>
-      </c>
-      <c r="R31">
-        <v>1.25570084283</v>
-      </c>
-      <c r="S31">
-        <v>0.000869382399354558</v>
-      </c>
-      <c r="T31">
-        <v>0.001113673766953524</v>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.2687716666666666</v>
+      </c>
+      <c r="N36">
+        <v>0.8063149999999999</v>
+      </c>
+      <c r="O36">
+        <v>0.03665779093022745</v>
+      </c>
+      <c r="P36">
+        <v>0.04415066821064279</v>
+      </c>
+      <c r="Q36">
+        <v>0.03091223569833332</v>
+      </c>
+      <c r="R36">
+        <v>0.2782101212849999</v>
+      </c>
+      <c r="S36">
+        <v>0.0002121479043350572</v>
+      </c>
+      <c r="T36">
+        <v>0.0002835827089712917</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G37">
+        <v>0.115013</v>
+      </c>
+      <c r="H37">
+        <v>0.345039</v>
+      </c>
+      <c r="I37">
+        <v>0.005787252830887944</v>
+      </c>
+      <c r="J37">
+        <v>0.006423067202931537</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M37">
+        <v>0.163505</v>
+      </c>
+      <c r="N37">
+        <v>0.490515</v>
+      </c>
+      <c r="O37">
+        <v>0.02230046113261011</v>
+      </c>
+      <c r="P37">
+        <v>0.02685869048367381</v>
+      </c>
+      <c r="Q37">
+        <v>0.018805200565</v>
+      </c>
+      <c r="R37">
+        <v>0.169246805085</v>
+      </c>
+      <c r="S37">
+        <v>0.0001290584068198044</v>
+      </c>
+      <c r="T37">
+        <v>0.0001725151739593747</v>
       </c>
     </row>
   </sheetData>
